--- a/単体テスト/単体テスト 【 アカウント登録画面 】.xlsx
+++ b/単体テスト/単体テスト 【 アカウント登録画面 】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murakami Eri\Desktop\workspace\workspace-murakami\account\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA37EFE5-45D3-43D6-A86A-D0F9ABAEF233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B4465-69BB-4FA5-B411-4B4ADC4D1191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{177FA795-7FD5-4C77-B047-A86334658023}"/>
   </bookViews>
@@ -37836,8 +37836,8 @@
   </sheetPr>
   <dimension ref="A1:J237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A242" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209:A235"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
@@ -39354,10 +39354,10 @@
         <v>38</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="13"/>
@@ -39831,10 +39831,10 @@
         <v>38</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="13"/>
